--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="120" windowWidth="11328" windowHeight="6192"/>
+    <workbookView xWindow="288" yWindow="120" windowWidth="11328" windowHeight="6192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +26,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,13 +56,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -136,76 +152,76 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$19</c:f>
+              <c:f>Sheet1!$B$1:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.02</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.26</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.57</c:v>
+                  <c:v>2.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.81</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.04</c:v>
+                  <c:v>3.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.36</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.58</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.73</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.94</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.07</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.49</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.74</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.92</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="99134080"/>
-        <c:axId val="99132544"/>
+        <c:axId val="79628160"/>
+        <c:axId val="79629696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99134080"/>
+        <c:axId val="79628160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -214,12 +230,12 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99132544"/>
+        <c:crossAx val="79629696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99132544"/>
+        <c:axId val="79629696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -227,20 +243,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99134080"/>
+        <c:crossAx val="79628160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -568,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -579,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <f>SUM(PRODUCT(A1,0.3), PRODUCT(A1, 0.1))</f>
+        <f t="shared" ref="B1:B19" si="0">SUM(PRODUCT(A1,0.3), PRODUCT(A1, 0.1))</f>
         <v>0.4</v>
       </c>
       <c r="C1">
@@ -592,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>SUM(PRODUCT(A2,0.3), PRODUCT(A2, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="C2">
@@ -605,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f>SUM(PRODUCT(A3,0.3), PRODUCT(A3, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="C3">
@@ -617,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f>SUM(PRODUCT(A4,0.3), PRODUCT(A4, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="C4">
@@ -629,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f>SUM(PRODUCT(A5,0.3), PRODUCT(A5, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C5">
@@ -641,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>SUM(PRODUCT(A6,0.3), PRODUCT(A6, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="C6">
@@ -653,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <f>SUM(PRODUCT(A7,0.3), PRODUCT(A7, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="C7">
@@ -665,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <f>SUM(PRODUCT(A8,0.3), PRODUCT(A8, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
       <c r="C8">
@@ -677,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <f>SUM(PRODUCT(A9,0.3), PRODUCT(A9, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="C9">
@@ -689,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <f>SUM(PRODUCT(A10,0.3), PRODUCT(A10, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10">
@@ -701,14 +716,14 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <f>SUM(PRODUCT(A11,0.3), PRODUCT(A11, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11">
         <v>2.36</v>
       </c>
       <c r="D11">
-        <f>PRODUCT(A11,0.3)</f>
+        <f t="shared" ref="D11:D19" si="1">PRODUCT(A11,0.3)</f>
         <v>6</v>
       </c>
     </row>
@@ -717,14 +732,14 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <f>SUM(PRODUCT(A12,0.3), PRODUCT(A12, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C12">
         <v>2.58</v>
       </c>
       <c r="D12">
-        <f>PRODUCT(A12,0.3)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -733,14 +748,14 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <f>SUM(PRODUCT(A13,0.3), PRODUCT(A13, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C13">
         <v>2.73</v>
       </c>
       <c r="D13">
-        <f>PRODUCT(A13,0.3)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -749,14 +764,14 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <f>SUM(PRODUCT(A14,0.3), PRODUCT(A14, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C14">
         <v>2.94</v>
       </c>
       <c r="D14">
-        <f>PRODUCT(A14,0.3)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -765,14 +780,14 @@
         <v>60</v>
       </c>
       <c r="B15">
-        <f>SUM(PRODUCT(A15,0.3), PRODUCT(A15, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C15">
         <v>3.07</v>
       </c>
       <c r="D15">
-        <f>PRODUCT(A15,0.3)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -781,14 +796,14 @@
         <v>70</v>
       </c>
       <c r="B16">
-        <f>SUM(PRODUCT(A16,0.3), PRODUCT(A16, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C16">
         <v>3.26</v>
       </c>
       <c r="D16">
-        <f>PRODUCT(A16,0.3)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -797,14 +812,14 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <f>SUM(PRODUCT(A17,0.3), PRODUCT(A17, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C17">
         <v>3.49</v>
       </c>
       <c r="D17">
-        <f>PRODUCT(A17,0.3)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -813,14 +828,14 @@
         <v>90</v>
       </c>
       <c r="B18">
-        <f>SUM(PRODUCT(A18,0.3), PRODUCT(A18, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C18">
         <v>3.74</v>
       </c>
       <c r="D18">
-        <f>PRODUCT(A18,0.3)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
@@ -829,14 +844,14 @@
         <v>100</v>
       </c>
       <c r="B19">
-        <f>SUM(PRODUCT(A19,0.3), PRODUCT(A19, 0.1))</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C19">
         <v>3.92</v>
       </c>
       <c r="D19">
-        <f>PRODUCT(A19,0.3)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -860,12 +875,602 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B65" activeCellId="7" sqref="B41 B45 B48 B51 B55 B58 B61 B65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <f t="shared" ref="B1:B13" si="0">POWER(2,A1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:B28" si="1">POWER(2,A15)</f>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>4194304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>16777216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>33554432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>67108864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>134217728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B65" si="2">POWER(2,A29)</f>
+        <v>268435456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>536870912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
+        <v>1073741824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>2147483648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>4294967296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>8589934592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="2"/>
+        <v>17179869184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>34359738368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>68719476736</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="2"/>
+        <v>137438953472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>274877906944</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>549755813888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="2"/>
+        <v>1099511627776</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>2199023255552</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>4398046511104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>8796093022208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="2"/>
+        <v>17592186044416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>35184372088832</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>70368744177664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="2"/>
+        <v>140737488355328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>281474976710656</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>562949953421312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="2"/>
+        <v>1125899906842624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>2251799813685248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>4503599627370496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>9007199254740992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8014398509481984E+16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="2"/>
+        <v>3.6028797018963968E+16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="2"/>
+        <v>7.2057594037927936E+16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4411518807585587E+17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="2"/>
+        <v>2.8823037615171174E+17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="2"/>
+        <v>5.7646075230342349E+17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="2"/>
+        <v>1.152921504606847E+18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="2"/>
+        <v>2.305843009213694E+18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="2"/>
+        <v>4.6116860184273879E+18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="2"/>
+        <v>9.2233720368547758E+18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8446744073709552E+19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>